--- a/wash_P/HUN.xlsx
+++ b/wash_P/HUN.xlsx
@@ -20632,7 +20632,7 @@
         <v>0</v>
       </c>
       <c r="AEU6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEV6" t="n">
         <v>0</v>
@@ -25358,7 +25358,7 @@
         <v>0</v>
       </c>
       <c r="LE8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LF8" t="n">
         <v>0</v>
@@ -36119,7 +36119,7 @@
         <v>0</v>
       </c>
       <c r="ACV11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACW11" t="n">
         <v>0</v>
@@ -36140,7 +36140,7 @@
         <v>0</v>
       </c>
       <c r="ADC11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADD11" t="n">
         <v>0</v>
@@ -40332,13 +40332,13 @@
         <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR13" t="n">
         <v>0</v>
       </c>
       <c r="CS13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT13" t="n">
         <v>0</v>
